--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H2">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I2">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J2">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04524533333333333</v>
+        <v>0.1678366666666667</v>
       </c>
       <c r="N2">
-        <v>0.135736</v>
+        <v>0.50351</v>
       </c>
       <c r="O2">
-        <v>0.002667246060778649</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="P2">
-        <v>0.002667246060778649</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="Q2">
-        <v>0.7716026636604445</v>
+        <v>2.585839271042222</v>
       </c>
       <c r="R2">
-        <v>6.944423972944</v>
+        <v>23.27255343938</v>
       </c>
       <c r="S2">
-        <v>0.0009338791820336076</v>
+        <v>0.007993184172589027</v>
       </c>
       <c r="T2">
-        <v>0.0009338791820336076</v>
+        <v>0.007993184172589029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H3">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I3">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J3">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.646189</v>
       </c>
       <c r="O3">
-        <v>0.189550005980553</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="P3">
-        <v>0.189550005980553</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="Q3">
-        <v>54.83456950677844</v>
+        <v>49.5392233165091</v>
       </c>
       <c r="R3">
-        <v>493.5111255610061</v>
+        <v>445.8530098485819</v>
       </c>
       <c r="S3">
-        <v>0.06636688198459939</v>
+        <v>0.1531325400500534</v>
       </c>
       <c r="T3">
-        <v>0.0663668819845994</v>
+        <v>0.1531325400500534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H4">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I4">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J4">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1960953333333333</v>
+        <v>0.4329113333333334</v>
       </c>
       <c r="N4">
-        <v>0.588286</v>
+        <v>1.298734</v>
       </c>
       <c r="O4">
-        <v>0.01155996578734623</v>
+        <v>0.04977690473409014</v>
       </c>
       <c r="P4">
-        <v>0.01155996578734624</v>
+        <v>0.04977690473409013</v>
       </c>
       <c r="Q4">
-        <v>3.344161052293777</v>
+        <v>6.66981267469911</v>
       </c>
       <c r="R4">
-        <v>30.097449470644</v>
+        <v>60.028314072292</v>
       </c>
       <c r="S4">
-        <v>0.004047474866518999</v>
+        <v>0.02061730661397636</v>
       </c>
       <c r="T4">
-        <v>0.004047474866518999</v>
+        <v>0.02061730661397636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H5">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I5">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J5">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.642127</v>
+        <v>3.303226</v>
       </c>
       <c r="N5">
-        <v>37.926381</v>
+        <v>9.909678</v>
       </c>
       <c r="O5">
-        <v>0.745262791903697</v>
+        <v>0.3798107216346911</v>
       </c>
       <c r="P5">
-        <v>0.745262791903697</v>
+        <v>0.379810721634691</v>
       </c>
       <c r="Q5">
-        <v>215.5956901824194</v>
+        <v>50.89240439272933</v>
       </c>
       <c r="R5">
-        <v>1940.361211641774</v>
+        <v>458.0316395345639</v>
       </c>
       <c r="S5">
-        <v>0.2609378327472075</v>
+        <v>0.157315408522281</v>
       </c>
       <c r="T5">
-        <v>0.2609378327472075</v>
+        <v>0.157315408522281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,61 +791,61 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H6">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I6">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J6">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8318833333333333</v>
+        <v>1.577661666666667</v>
       </c>
       <c r="N6">
-        <v>2.49565</v>
+        <v>4.732984999999999</v>
       </c>
       <c r="O6">
-        <v>0.04904014138903633</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="P6">
-        <v>0.04904014138903634</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="Q6">
-        <v>14.18673150501111</v>
+        <v>24.30684292715888</v>
       </c>
       <c r="R6">
-        <v>127.6805835451</v>
+        <v>218.7615863444299</v>
       </c>
       <c r="S6">
-        <v>0.0171703570212926</v>
+        <v>0.07513578834799958</v>
       </c>
       <c r="T6">
-        <v>0.0171703570212926</v>
+        <v>0.07513578834799958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.05375133333333</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H7">
-        <v>51.16125400000001</v>
+        <v>9.111053</v>
       </c>
       <c r="I7">
-        <v>0.3501286198398134</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J7">
-        <v>0.3501286198398134</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.032567</v>
+        <v>0.1678366666666667</v>
       </c>
       <c r="N7">
-        <v>0.097701</v>
+        <v>0.50351</v>
       </c>
       <c r="O7">
-        <v>0.00191984887858884</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="P7">
-        <v>0.00191984887858884</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="Q7">
-        <v>0.5553895196726667</v>
+        <v>0.5097229217811111</v>
       </c>
       <c r="R7">
-        <v>4.998505677054</v>
+        <v>4.58750629603</v>
       </c>
       <c r="S7">
-        <v>0.0006721940381613241</v>
+        <v>0.001575623526339463</v>
       </c>
       <c r="T7">
-        <v>0.0006721940381613242</v>
+        <v>0.001575623526339463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>9.111053</v>
       </c>
       <c r="I8">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J8">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.04524533333333333</v>
+        <v>3.215396333333333</v>
       </c>
       <c r="N8">
-        <v>0.135736</v>
+        <v>9.646189</v>
       </c>
       <c r="O8">
-        <v>0.002667246060778649</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="P8">
-        <v>0.002667246060778649</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="Q8">
-        <v>0.1374108766675556</v>
+        <v>9.765215469668556</v>
       </c>
       <c r="R8">
-        <v>1.236697890008</v>
+        <v>87.886939227017</v>
       </c>
       <c r="S8">
-        <v>0.0001663098938721253</v>
+        <v>0.03018562159225624</v>
       </c>
       <c r="T8">
-        <v>0.0001663098938721253</v>
+        <v>0.03018562159225624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>9.111053</v>
       </c>
       <c r="I9">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J9">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.215396333333333</v>
+        <v>0.4329113333333334</v>
       </c>
       <c r="N9">
-        <v>9.646189</v>
+        <v>1.298734</v>
       </c>
       <c r="O9">
-        <v>0.189550005980553</v>
+        <v>0.04977690473409014</v>
       </c>
       <c r="P9">
-        <v>0.189550005980553</v>
+        <v>0.04977690473409013</v>
       </c>
       <c r="Q9">
-        <v>9.765215469668556</v>
+        <v>1.314759367433556</v>
       </c>
       <c r="R9">
-        <v>87.886939227017</v>
+        <v>11.832834306902</v>
       </c>
       <c r="S9">
-        <v>0.01181894758104307</v>
+        <v>0.004064101695809332</v>
       </c>
       <c r="T9">
-        <v>0.01181894758104307</v>
+        <v>0.004064101695809332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>9.111053</v>
       </c>
       <c r="I10">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J10">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1960953333333333</v>
+        <v>3.303226</v>
       </c>
       <c r="N10">
-        <v>0.588286</v>
+        <v>9.909678</v>
       </c>
       <c r="O10">
-        <v>0.01155996578734623</v>
+        <v>0.3798107216346911</v>
       </c>
       <c r="P10">
-        <v>0.01155996578734624</v>
+        <v>0.379810721634691</v>
       </c>
       <c r="Q10">
-        <v>0.5955449916842223</v>
+        <v>10.03195571899267</v>
       </c>
       <c r="R10">
-        <v>5.359904925158</v>
+        <v>90.28760147093399</v>
       </c>
       <c r="S10">
-        <v>0.0007207946471566651</v>
+        <v>0.03101015232120236</v>
       </c>
       <c r="T10">
-        <v>0.000720794647156665</v>
+        <v>0.03101015232120236</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>9.111053</v>
       </c>
       <c r="I11">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J11">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.642127</v>
+        <v>1.577661666666667</v>
       </c>
       <c r="N11">
-        <v>37.926381</v>
+        <v>4.732984999999999</v>
       </c>
       <c r="O11">
-        <v>0.745262791903697</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="P11">
-        <v>0.745262791903697</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="Q11">
-        <v>38.39436304324367</v>
+        <v>4.791386353689444</v>
       </c>
       <c r="R11">
-        <v>345.549267389193</v>
+        <v>43.12247718320499</v>
       </c>
       <c r="S11">
-        <v>0.04646911946030376</v>
+        <v>0.01481083298407536</v>
       </c>
       <c r="T11">
-        <v>0.04646911946030374</v>
+        <v>0.01481083298407536</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.037017666666667</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H12">
-        <v>9.111053</v>
+        <v>9.942079</v>
       </c>
       <c r="I12">
-        <v>0.06235266266494155</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J12">
-        <v>0.06235266266494154</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.8318833333333333</v>
+        <v>0.1678366666666667</v>
       </c>
       <c r="N12">
-        <v>2.49565</v>
+        <v>0.50351</v>
       </c>
       <c r="O12">
-        <v>0.04904014138903633</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="P12">
-        <v>0.04904014138903634</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="Q12">
-        <v>2.526444379938889</v>
+        <v>0.5562151330322221</v>
       </c>
       <c r="R12">
-        <v>22.73799941945</v>
+        <v>5.00593619729</v>
       </c>
       <c r="S12">
-        <v>0.003057783393071621</v>
+        <v>0.001719337333799454</v>
       </c>
       <c r="T12">
-        <v>0.003057783393071621</v>
+        <v>0.001719337333799455</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.037017666666667</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H13">
-        <v>9.111053</v>
+        <v>9.942079</v>
       </c>
       <c r="I13">
-        <v>0.06235266266494155</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J13">
-        <v>0.06235266266494154</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.032567</v>
+        <v>3.215396333333333</v>
       </c>
       <c r="N13">
-        <v>0.097701</v>
+        <v>9.646189</v>
       </c>
       <c r="O13">
-        <v>0.00191984887858884</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="P13">
-        <v>0.00191984887858884</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="Q13">
-        <v>0.09890655435033334</v>
+        <v>10.65590812077011</v>
       </c>
       <c r="R13">
-        <v>0.890158989153</v>
+        <v>95.90317308693099</v>
       </c>
       <c r="S13">
-        <v>0.0001197076894943163</v>
+        <v>0.03293887485171223</v>
       </c>
       <c r="T13">
-        <v>0.0001197076894943163</v>
+        <v>0.03293887485171223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H14">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I14">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J14">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04524533333333333</v>
+        <v>0.4329113333333334</v>
       </c>
       <c r="N14">
-        <v>0.135736</v>
+        <v>1.298734</v>
       </c>
       <c r="O14">
-        <v>0.002667246060778649</v>
+        <v>0.04977690473409014</v>
       </c>
       <c r="P14">
-        <v>0.002667246060778649</v>
+        <v>0.04977690473409013</v>
       </c>
       <c r="Q14">
-        <v>0.2242040343671111</v>
+        <v>1.434679558665111</v>
       </c>
       <c r="R14">
-        <v>2.017836309304</v>
+        <v>12.912116027986</v>
       </c>
       <c r="S14">
-        <v>0.0002713566063005884</v>
+        <v>0.004434791469632581</v>
       </c>
       <c r="T14">
-        <v>0.0002713566063005884</v>
+        <v>0.004434791469632582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H15">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I15">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J15">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.215396333333333</v>
+        <v>3.303226</v>
       </c>
       <c r="N15">
-        <v>9.646189</v>
+        <v>9.909678</v>
       </c>
       <c r="O15">
-        <v>0.189550005980553</v>
+        <v>0.3798107216346911</v>
       </c>
       <c r="P15">
-        <v>0.189550005980553</v>
+        <v>0.379810721634691</v>
       </c>
       <c r="Q15">
-        <v>15.93324166078011</v>
+        <v>10.94697794895133</v>
       </c>
       <c r="R15">
-        <v>143.399174947021</v>
+        <v>98.52280154056199</v>
       </c>
       <c r="S15">
-        <v>0.01928417745310063</v>
+        <v>0.03383861164888703</v>
       </c>
       <c r="T15">
-        <v>0.01928417745310063</v>
+        <v>0.03383861164888703</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H16">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I16">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J16">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1960953333333333</v>
+        <v>1.577661666666667</v>
       </c>
       <c r="N16">
-        <v>0.588286</v>
+        <v>4.732984999999999</v>
       </c>
       <c r="O16">
-        <v>0.01155996578734623</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="P16">
-        <v>0.01155996578734624</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="Q16">
-        <v>0.9717104862504445</v>
+        <v>5.228412308423888</v>
       </c>
       <c r="R16">
-        <v>8.745394376254</v>
+        <v>47.05571077581499</v>
       </c>
       <c r="S16">
-        <v>0.001176071878456327</v>
+        <v>0.01616174020538383</v>
       </c>
       <c r="T16">
-        <v>0.001176071878456327</v>
+        <v>0.01616174020538383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.955296333333334</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H17">
-        <v>14.865889</v>
+        <v>18.970717</v>
       </c>
       <c r="I17">
-        <v>0.101736622762645</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J17">
-        <v>0.101736622762645</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>12.642127</v>
+        <v>0.1678366666666667</v>
       </c>
       <c r="N17">
-        <v>37.926381</v>
+        <v>0.50351</v>
       </c>
       <c r="O17">
-        <v>0.745262791903697</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="P17">
-        <v>0.745262791903697</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="Q17">
-        <v>62.64548556863434</v>
+        <v>1.061327301852222</v>
       </c>
       <c r="R17">
-        <v>563.809370117709</v>
+        <v>9.55194571667</v>
       </c>
       <c r="S17">
-        <v>0.07582051951894205</v>
+        <v>0.003280708389768779</v>
       </c>
       <c r="T17">
-        <v>0.07582051951894205</v>
+        <v>0.003280708389768779</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,61 +1535,61 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.955296333333334</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H18">
-        <v>14.865889</v>
+        <v>18.970717</v>
       </c>
       <c r="I18">
-        <v>0.101736622762645</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J18">
-        <v>0.101736622762645</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8318833333333333</v>
+        <v>3.215396333333333</v>
       </c>
       <c r="N18">
-        <v>2.49565</v>
+        <v>9.646189</v>
       </c>
       <c r="O18">
-        <v>0.04904014138903633</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="P18">
-        <v>0.04904014138903634</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="Q18">
-        <v>4.122228431427779</v>
+        <v>20.33279129416811</v>
       </c>
       <c r="R18">
-        <v>37.10005588285</v>
+        <v>182.995121647513</v>
       </c>
       <c r="S18">
-        <v>0.004989178364723164</v>
+        <v>0.06285144918987766</v>
       </c>
       <c r="T18">
-        <v>0.004989178364723164</v>
+        <v>0.06285144918987766</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.955296333333334</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H19">
-        <v>14.865889</v>
+        <v>18.970717</v>
       </c>
       <c r="I19">
-        <v>0.101736622762645</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J19">
-        <v>0.101736622762645</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.032567</v>
+        <v>0.4329113333333334</v>
       </c>
       <c r="N19">
-        <v>0.097701</v>
+        <v>1.298734</v>
       </c>
       <c r="O19">
-        <v>0.00191984887858884</v>
+        <v>0.04977690473409014</v>
       </c>
       <c r="P19">
-        <v>0.00191984887858884</v>
+        <v>0.04977690473409013</v>
       </c>
       <c r="Q19">
-        <v>0.1613791356876667</v>
+        <v>2.737546130253111</v>
       </c>
       <c r="R19">
-        <v>1.452412221189</v>
+        <v>24.637915172278</v>
       </c>
       <c r="S19">
-        <v>0.0001953189411222799</v>
+        <v>0.008462130900832089</v>
       </c>
       <c r="T19">
-        <v>0.0001953189411222799</v>
+        <v>0.008462130900832089</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H20">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I20">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J20">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04524533333333333</v>
+        <v>3.303226</v>
       </c>
       <c r="N20">
-        <v>0.135736</v>
+        <v>9.909678</v>
       </c>
       <c r="O20">
-        <v>0.002667246060778649</v>
+        <v>0.3798107216346911</v>
       </c>
       <c r="P20">
-        <v>0.002667246060778649</v>
+        <v>0.379810721634691</v>
       </c>
       <c r="Q20">
-        <v>0.5703150286640001</v>
+        <v>20.88818854434734</v>
       </c>
       <c r="R20">
-        <v>5.132835257976</v>
+        <v>187.993696899126</v>
       </c>
       <c r="S20">
-        <v>0.0006902585456918419</v>
+        <v>0.06456825833549898</v>
       </c>
       <c r="T20">
-        <v>0.0006902585456918418</v>
+        <v>0.06456825833549898</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H21">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I21">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J21">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.215396333333333</v>
+        <v>1.577661666666667</v>
       </c>
       <c r="N21">
-        <v>9.646189</v>
+        <v>4.732984999999999</v>
       </c>
       <c r="O21">
-        <v>0.189550005980553</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="P21">
-        <v>0.189550005980553</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="Q21">
-        <v>40.529900365661</v>
+        <v>9.976457666693889</v>
       </c>
       <c r="R21">
-        <v>364.769103290949</v>
+        <v>89.78811900024499</v>
       </c>
       <c r="S21">
-        <v>0.04905378374645372</v>
+        <v>0.03083860022273596</v>
       </c>
       <c r="T21">
-        <v>0.04905378374645372</v>
+        <v>0.03083860022273595</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.604947</v>
+        <v>7.673238</v>
       </c>
       <c r="H22">
-        <v>37.814841</v>
+        <v>23.019714</v>
       </c>
       <c r="I22">
-        <v>0.2587907264507627</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J22">
-        <v>0.2587907264507627</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1960953333333333</v>
+        <v>0.1678366666666667</v>
       </c>
       <c r="N22">
-        <v>0.588286</v>
+        <v>0.50351</v>
       </c>
       <c r="O22">
-        <v>0.01155996578734623</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="P22">
-        <v>0.01155996578734624</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="Q22">
-        <v>2.471771283614</v>
+        <v>1.28785068846</v>
       </c>
       <c r="R22">
-        <v>22.245941552526</v>
+        <v>11.59065619614</v>
       </c>
       <c r="S22">
-        <v>0.002991611943853295</v>
+        <v>0.003980923275060074</v>
       </c>
       <c r="T22">
-        <v>0.002991611943853295</v>
+        <v>0.003980923275060074</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.604947</v>
+        <v>7.673238</v>
       </c>
       <c r="H23">
-        <v>37.814841</v>
+        <v>23.019714</v>
       </c>
       <c r="I23">
-        <v>0.2587907264507627</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J23">
-        <v>0.2587907264507627</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.642127</v>
+        <v>3.215396333333333</v>
       </c>
       <c r="N23">
-        <v>37.926381</v>
+        <v>9.646189</v>
       </c>
       <c r="O23">
-        <v>0.745262791903697</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="P23">
-        <v>0.745262791903697</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="Q23">
-        <v>159.353340802269</v>
+        <v>24.672501329994</v>
       </c>
       <c r="R23">
-        <v>1434.180067220421</v>
+        <v>222.052511969946</v>
       </c>
       <c r="S23">
-        <v>0.1928670993134814</v>
+        <v>0.07626608866900052</v>
       </c>
       <c r="T23">
-        <v>0.1928670993134813</v>
+        <v>0.07626608866900052</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,61 +1907,61 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.604947</v>
+        <v>7.673238</v>
       </c>
       <c r="H24">
-        <v>37.814841</v>
+        <v>23.019714</v>
       </c>
       <c r="I24">
-        <v>0.2587907264507627</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J24">
-        <v>0.2587907264507627</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8318833333333333</v>
+        <v>0.4329113333333334</v>
       </c>
       <c r="N24">
-        <v>2.49565</v>
+        <v>1.298734</v>
       </c>
       <c r="O24">
-        <v>0.04904014138903633</v>
+        <v>0.04977690473409014</v>
       </c>
       <c r="P24">
-        <v>0.04904014138903634</v>
+        <v>0.04977690473409013</v>
       </c>
       <c r="Q24">
-        <v>10.48584532685</v>
+        <v>3.321831693564</v>
       </c>
       <c r="R24">
-        <v>94.37260794165</v>
+        <v>29.896485242076</v>
       </c>
       <c r="S24">
-        <v>0.01269113381531683</v>
+        <v>0.01026823778815092</v>
       </c>
       <c r="T24">
-        <v>0.01269113381531683</v>
+        <v>0.01026823778815092</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.604947</v>
+        <v>7.673238</v>
       </c>
       <c r="H25">
-        <v>37.814841</v>
+        <v>23.019714</v>
       </c>
       <c r="I25">
-        <v>0.2587907264507627</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J25">
-        <v>0.2587907264507627</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.032567</v>
+        <v>3.303226</v>
       </c>
       <c r="N25">
-        <v>0.097701</v>
+        <v>9.909678</v>
       </c>
       <c r="O25">
-        <v>0.00191984887858884</v>
+        <v>0.3798107216346911</v>
       </c>
       <c r="P25">
-        <v>0.00191984887858884</v>
+        <v>0.379810721634691</v>
       </c>
       <c r="Q25">
-        <v>0.410505308949</v>
+        <v>25.346439265788</v>
       </c>
       <c r="R25">
-        <v>3.694547780541</v>
+        <v>228.117953392092</v>
       </c>
       <c r="S25">
-        <v>0.0004968390859656881</v>
+        <v>0.07834932334720415</v>
       </c>
       <c r="T25">
-        <v>0.0004968390859656881</v>
+        <v>0.07834932334720414</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H26">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I26">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J26">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.04524533333333333</v>
+        <v>1.577661666666667</v>
       </c>
       <c r="N26">
-        <v>0.135736</v>
+        <v>4.732984999999999</v>
       </c>
       <c r="O26">
-        <v>0.002667246060778649</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="P26">
-        <v>0.002667246060778649</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="Q26">
-        <v>0.2334244601928889</v>
+        <v>12.10577345181</v>
       </c>
       <c r="R26">
-        <v>2.100820141736</v>
+        <v>108.95196106629</v>
       </c>
       <c r="S26">
-        <v>0.0002825161889895981</v>
+        <v>0.03742060762846855</v>
       </c>
       <c r="T26">
-        <v>0.0002825161889895981</v>
+        <v>0.03742060762846854</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.159083666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H27">
-        <v>15.477251</v>
+        <v>4.327499</v>
       </c>
       <c r="I27">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J27">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>3.215396333333333</v>
+        <v>0.1678366666666667</v>
       </c>
       <c r="N27">
-        <v>9.646189</v>
+        <v>0.50351</v>
       </c>
       <c r="O27">
-        <v>0.189550005980553</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="P27">
-        <v>0.189550005980553</v>
+        <v>0.01929815443552084</v>
       </c>
       <c r="Q27">
-        <v>16.58849870515989</v>
+        <v>0.2421043357211111</v>
       </c>
       <c r="R27">
-        <v>149.296488346439</v>
+        <v>2.17893902149</v>
       </c>
       <c r="S27">
-        <v>0.02007724225373801</v>
+        <v>0.0007483777379640421</v>
       </c>
       <c r="T27">
-        <v>0.02007724225373801</v>
+        <v>0.0007483777379640422</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.159083666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H28">
-        <v>15.477251</v>
+        <v>4.327499</v>
       </c>
       <c r="I28">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J28">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1960953333333333</v>
+        <v>3.215396333333333</v>
       </c>
       <c r="N28">
-        <v>0.588286</v>
+        <v>9.646189</v>
       </c>
       <c r="O28">
-        <v>0.01155996578734623</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="P28">
-        <v>0.01155996578734624</v>
+        <v>0.3697119124470662</v>
       </c>
       <c r="Q28">
-        <v>1.011672231309555</v>
+        <v>4.638208139034555</v>
       </c>
       <c r="R28">
-        <v>9.105050081786001</v>
+        <v>41.743873251311</v>
       </c>
       <c r="S28">
-        <v>0.001224438017592493</v>
+        <v>0.0143373380941662</v>
       </c>
       <c r="T28">
-        <v>0.001224438017592494</v>
+        <v>0.01433733809416621</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.159083666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H29">
-        <v>15.477251</v>
+        <v>4.327499</v>
       </c>
       <c r="I29">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J29">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.642127</v>
+        <v>0.4329113333333334</v>
       </c>
       <c r="N29">
-        <v>37.926381</v>
+        <v>1.298734</v>
       </c>
       <c r="O29">
-        <v>0.745262791903697</v>
+        <v>0.04977690473409014</v>
       </c>
       <c r="P29">
-        <v>0.745262791903697</v>
+        <v>0.04977690473409013</v>
       </c>
       <c r="Q29">
-        <v>65.22179091762567</v>
+        <v>0.6244744540295556</v>
       </c>
       <c r="R29">
-        <v>586.996118258631</v>
+        <v>5.620270086266001</v>
       </c>
       <c r="S29">
-        <v>0.07893865019071952</v>
+        <v>0.001930336265688849</v>
       </c>
       <c r="T29">
-        <v>0.07893865019071952</v>
+        <v>0.001930336265688849</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,61 +2279,61 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.159083666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H30">
-        <v>15.477251</v>
+        <v>4.327499</v>
       </c>
       <c r="I30">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J30">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8318833333333333</v>
+        <v>3.303226</v>
       </c>
       <c r="N30">
-        <v>2.49565</v>
+        <v>9.909678</v>
       </c>
       <c r="O30">
-        <v>0.04904014138903633</v>
+        <v>0.3798107216346911</v>
       </c>
       <c r="P30">
-        <v>0.04904014138903634</v>
+        <v>0.379810721634691</v>
       </c>
       <c r="Q30">
-        <v>4.291755717572222</v>
+        <v>4.764902403924667</v>
       </c>
       <c r="R30">
-        <v>38.62580145815</v>
+        <v>42.884121635322</v>
       </c>
       <c r="S30">
-        <v>0.005194359101873419</v>
+        <v>0.01472896745961755</v>
       </c>
       <c r="T30">
-        <v>0.00519435910187342</v>
+        <v>0.01472896745961755</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.159083666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H31">
-        <v>15.477251</v>
+        <v>4.327499</v>
       </c>
       <c r="I31">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J31">
-        <v>0.1059205572159035</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.032567</v>
+        <v>1.577661666666667</v>
       </c>
       <c r="N31">
-        <v>0.097701</v>
+        <v>4.732984999999999</v>
       </c>
       <c r="O31">
-        <v>0.00191984887858884</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="P31">
-        <v>0.00191984887858884</v>
+        <v>0.1814023067486318</v>
       </c>
       <c r="Q31">
-        <v>0.1680158777723333</v>
+        <v>2.275776428279444</v>
       </c>
       <c r="R31">
-        <v>1.512142899951</v>
+        <v>20.481987854515</v>
       </c>
       <c r="S31">
-        <v>0.0002033514629904574</v>
+        <v>0.007034737359968504</v>
       </c>
       <c r="T31">
-        <v>0.0002033514629904574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>5.897008666666667</v>
-      </c>
-      <c r="H32">
-        <v>17.691026</v>
-      </c>
-      <c r="I32">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="J32">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M32">
-        <v>0.04524533333333333</v>
-      </c>
-      <c r="N32">
-        <v>0.135736</v>
-      </c>
-      <c r="O32">
-        <v>0.002667246060778649</v>
-      </c>
-      <c r="P32">
-        <v>0.002667246060778649</v>
-      </c>
-      <c r="Q32">
-        <v>0.2668121227928889</v>
-      </c>
-      <c r="R32">
-        <v>2.401309105136</v>
-      </c>
-      <c r="S32">
-        <v>0.0003229256438908883</v>
-      </c>
-      <c r="T32">
-        <v>0.0003229256438908883</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>5.897008666666667</v>
-      </c>
-      <c r="H33">
-        <v>17.691026</v>
-      </c>
-      <c r="I33">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="J33">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>3.215396333333333</v>
-      </c>
-      <c r="N33">
-        <v>9.646189</v>
-      </c>
-      <c r="O33">
-        <v>0.189550005980553</v>
-      </c>
-      <c r="P33">
-        <v>0.189550005980553</v>
-      </c>
-      <c r="Q33">
-        <v>18.96122004443489</v>
-      </c>
-      <c r="R33">
-        <v>170.650980399914</v>
-      </c>
-      <c r="S33">
-        <v>0.02294897296161817</v>
-      </c>
-      <c r="T33">
-        <v>0.02294897296161817</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>5.897008666666667</v>
-      </c>
-      <c r="H34">
-        <v>17.691026</v>
-      </c>
-      <c r="I34">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="J34">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.1960953333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.588286</v>
-      </c>
-      <c r="O34">
-        <v>0.01155996578734623</v>
-      </c>
-      <c r="P34">
-        <v>0.01155996578734624</v>
-      </c>
-      <c r="Q34">
-        <v>1.156375880159556</v>
-      </c>
-      <c r="R34">
-        <v>10.407382921436</v>
-      </c>
-      <c r="S34">
-        <v>0.001399574433768456</v>
-      </c>
-      <c r="T34">
-        <v>0.001399574433768456</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>5.897008666666667</v>
-      </c>
-      <c r="H35">
-        <v>17.691026</v>
-      </c>
-      <c r="I35">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="J35">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>12.642127</v>
-      </c>
-      <c r="N35">
-        <v>37.926381</v>
-      </c>
-      <c r="O35">
-        <v>0.745262791903697</v>
-      </c>
-      <c r="P35">
-        <v>0.745262791903697</v>
-      </c>
-      <c r="Q35">
-        <v>74.55073248410068</v>
-      </c>
-      <c r="R35">
-        <v>670.9565923569061</v>
-      </c>
-      <c r="S35">
-        <v>0.09022957067304292</v>
-      </c>
-      <c r="T35">
-        <v>0.09022957067304291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>5.897008666666667</v>
-      </c>
-      <c r="H36">
-        <v>17.691026</v>
-      </c>
-      <c r="I36">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="J36">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.8318833333333333</v>
-      </c>
-      <c r="N36">
-        <v>2.49565</v>
-      </c>
-      <c r="O36">
-        <v>0.04904014138903633</v>
-      </c>
-      <c r="P36">
-        <v>0.04904014138903634</v>
-      </c>
-      <c r="Q36">
-        <v>4.905623226322223</v>
-      </c>
-      <c r="R36">
-        <v>44.1506090369</v>
-      </c>
-      <c r="S36">
-        <v>0.005937329692758703</v>
-      </c>
-      <c r="T36">
-        <v>0.005937329692758704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>5.897008666666667</v>
-      </c>
-      <c r="H37">
-        <v>17.691026</v>
-      </c>
-      <c r="I37">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="J37">
-        <v>0.1210708110659339</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.032567</v>
-      </c>
-      <c r="N37">
-        <v>0.097701</v>
-      </c>
-      <c r="O37">
-        <v>0.00191984887858884</v>
-      </c>
-      <c r="P37">
-        <v>0.00191984887858884</v>
-      </c>
-      <c r="Q37">
-        <v>0.1920478812473334</v>
-      </c>
-      <c r="R37">
-        <v>1.728430931226</v>
-      </c>
-      <c r="S37">
-        <v>0.0002324376608547745</v>
-      </c>
-      <c r="T37">
-        <v>0.0002324376608547745</v>
+        <v>0.007034737359968505</v>
       </c>
     </row>
   </sheetData>
